--- a/data/Geografie/Pohlheim/Pohlheim.xlsx
+++ b/data/Geografie/Pohlheim/Pohlheim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonas\Documents\PlatformIO\Projects\TTS\data\Geografie\Pohlheim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B4FBB3-0624-444F-BC30-F45E3E3FCF2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F6F451-A191-41FC-A4B2-11DEBDAFD41D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-348" yWindow="2952" windowWidth="17280" windowHeight="9024" firstSheet="1" activeTab="2" xr2:uid="{A07A0DF9-480F-4A58-BEB3-9E1D8E89EA58}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="4" activeTab="5" xr2:uid="{A07A0DF9-480F-4A58-BEB3-9E1D8E89EA58}"/>
   </bookViews>
   <sheets>
     <sheet name="Dorf-Güll" sheetId="1" r:id="rId1"/>
@@ -1203,12 +1203,12 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1236,7 +1236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1250,7 +1250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1306,7 +1306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1376,7 +1376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -1628,7 +1628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1714,12 +1714,12 @@
       <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1775,7 +1775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -2251,7 +2251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -2265,7 +2265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -2307,7 +2307,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2333,16 +2333,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F106D354-85DD-4DA8-BF33-A6FBA5B7705D}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2370,7 +2370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2384,7 +2384,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2510,7 +2510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -2636,7 +2636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -2790,7 +2790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -2816,13 +2816,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6E7B38-F1A2-493F-BDF6-ABA72CDEDA85}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2836,7 +2839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2864,7 +2867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2878,7 +2881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -2906,7 +2909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2920,7 +2923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -2934,7 +2937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -2948,7 +2951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3004,7 +3007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3032,7 +3035,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3074,7 +3077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3088,7 +3091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3116,7 +3119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3130,7 +3133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3198,13 +3201,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C45CFE4-4A3E-432F-BA48-57FDEAA0A3D4}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3218,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3232,7 +3238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3246,7 +3252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3260,7 +3266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3274,7 +3280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3302,7 +3308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3316,7 +3322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3344,7 +3350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3358,7 +3364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3372,7 +3378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3386,7 +3392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3400,7 +3406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -3414,7 +3420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -3428,7 +3434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -3456,7 +3462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -3470,7 +3476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -3484,7 +3490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -3498,7 +3504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -3512,7 +3518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -3526,7 +3532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -3540,7 +3546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -3568,7 +3574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -3582,7 +3588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -3596,7 +3602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3610,7 +3616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -3624,7 +3630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -3638,7 +3644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -3652,7 +3658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -3694,7 +3700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -3722,7 +3728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -3750,7 +3756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -3764,7 +3770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -3790,13 +3796,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DF0F161-01B5-4140-ADD8-E335C746BDFE}">
   <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:XFD181"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3810,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -3824,7 +3833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -3838,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -3852,7 +3861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3866,7 +3875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -3880,7 +3889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3894,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3908,7 +3917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -3922,7 +3931,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -3936,7 +3945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -3950,7 +3959,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -3978,7 +3987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -3992,7 +4001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -4020,7 +4029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -4034,7 +4043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -4048,7 +4057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -4062,7 +4071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>4</v>
       </c>
@@ -4076,7 +4085,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -4090,7 +4099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -4118,7 +4127,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -4132,7 +4141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -4146,7 +4155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>4</v>
       </c>
@@ -4160,7 +4169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>4</v>
       </c>
@@ -4174,7 +4183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -4188,7 +4197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -4202,7 +4211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>4</v>
       </c>
@@ -4216,7 +4225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -4230,7 +4239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -4244,7 +4253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>4</v>
       </c>
@@ -4258,7 +4267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
@@ -4272,7 +4281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -4286,7 +4295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>4</v>
       </c>
@@ -4300,7 +4309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>4</v>
       </c>
@@ -4314,7 +4323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -4328,7 +4337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>4</v>
       </c>
@@ -4342,7 +4351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>4</v>
       </c>
@@ -4356,7 +4365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>4</v>
       </c>
@@ -4384,7 +4393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -4398,7 +4407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -4426,7 +4435,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>4</v>
       </c>
@@ -4440,7 +4449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>4</v>
       </c>
@@ -4454,7 +4463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -4468,7 +4477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>4</v>
       </c>
@@ -4482,7 +4491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -4496,7 +4505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>4</v>
       </c>
@@ -4510,7 +4519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -4524,7 +4533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4538,7 +4547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -4552,7 +4561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -4566,7 +4575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -4580,7 +4589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
@@ -4608,7 +4617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -4622,7 +4631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>4</v>
       </c>
@@ -4636,7 +4645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>4</v>
       </c>
@@ -4650,7 +4659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>4</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>4</v>
       </c>
@@ -4678,7 +4687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>4</v>
       </c>
@@ -4692,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -4706,7 +4715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>4</v>
       </c>
@@ -4734,7 +4743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>4</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>4</v>
       </c>
@@ -4762,7 +4771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -4776,7 +4785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>4</v>
       </c>
@@ -4804,7 +4813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -4818,7 +4827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>4</v>
       </c>
@@ -4832,7 +4841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -4846,7 +4855,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>4</v>
       </c>
@@ -4874,7 +4883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>4</v>
       </c>
@@ -4888,7 +4897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -4902,7 +4911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -4916,7 +4925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -4930,7 +4939,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -4958,7 +4967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -4972,7 +4981,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -4986,7 +4995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5000,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5028,7 +5037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5042,7 +5051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5056,7 +5065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
